--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lionellopez/Desktop/MisProyectosStreamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lionellopez/Documents/GitHub/my_streamlit_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB01D9B2-1C04-6E4E-95D0-EFA940BB76CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C98FD0-2078-5342-8F3D-1BC22BB855FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="2460" windowWidth="29040" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="2460" windowWidth="29040" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
